--- a/仕様書/小児薬用量計算ツール(拡張Clark式)_別紙資料.xlsx
+++ b/仕様書/小児薬用量計算ツール(拡張Clark式)_別紙資料.xlsx
@@ -2632,50 +2632,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3103,7 +3103,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3123,48 +3123,48 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="75" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="67"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="73"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="58" t="s">
@@ -3721,14 +3721,14 @@
       <c r="A26" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="74" t="s">
+      <c r="C26" s="78"/>
+      <c r="D26" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="76"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="44" t="s">
         <v>33</v>
       </c>
@@ -3746,10 +3746,10 @@
       <c r="A27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="56" t="s">
         <v>37</v>
       </c>
@@ -3771,10 +3771,10 @@
       <c r="A28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="79"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="56" t="s">
         <v>39</v>
       </c>
@@ -3796,10 +3796,10 @@
       <c r="A29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="55" t="s">
         <v>41</v>
       </c>
@@ -3821,10 +3821,10 @@
       <c r="A30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="46" t="s">
         <v>92</v>
       </c>
@@ -3846,10 +3846,10 @@
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="46" t="s">
         <v>93</v>
       </c>
@@ -3871,10 +3871,10 @@
       <c r="A32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="56" t="s">
         <v>39</v>
       </c>
@@ -3897,10 +3897,10 @@
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="56" t="s">
         <v>39</v>
       </c>
@@ -3922,10 +3922,10 @@
       <c r="A34" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="56" t="s">
         <v>48</v>
       </c>
@@ -3946,19 +3946,19 @@
       <c r="A35" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="79"/>
+      <c r="C35" s="69"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="79"/>
+      <c r="C36" s="69"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
@@ -3971,20 +3971,32 @@
       </c>
     </row>
     <row r="51" spans="4:8">
-      <c r="D51" s="77" t="s">
+      <c r="D51" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
     </row>
     <row r="54" spans="4:8">
-      <c r="G54" s="77" t="s">
+      <c r="G54" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="77"/>
+      <c r="H54" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
@@ -3997,23 +4009,16 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L小児薬用量計算ツール(拡張Clark式) v1.0&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;LCopyright © 2019 浦 公統&amp;R&amp;Gこの文書は CC BY-SA 4.0 国際ライセンスの下に提供されています。</oddFooter>
+  </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4026,8 +4031,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozenSplit"/>
-      <selection activeCell="E22" sqref="E22"/>
-      <selection pane="topRight" activeCell="A33" sqref="A33"/>
+      <selection activeCell="C41" sqref="C41"/>
+      <selection pane="topRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5302,21 +5307,26 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:I39"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L小児薬用量計算ツール(拡張Clark式) v1.0&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;LCopyright © 2019 浦 公統&amp;R&amp;Gこの文書は CC BY-SA 4.0 国際ライセンスの下に提供されています。</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>